--- a/trunk/EasiCab/Documents/Manage/Project_TaskPlan.xlsx
+++ b/trunk/EasiCab/Documents/Manage/Project_TaskPlan.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="15960" windowHeight="11700"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>Project:</t>
   </si>
@@ -32,7 +35,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="11"/>
         <rFont val="Arial"/>
@@ -212,7 +215,6 @@
   <si>
     <t>TOTAL</t>
   </si>
-  <si/>
   <si>
     <t>Date</t>
   </si>
@@ -229,28 +231,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -265,13 +249,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Trebuchet MS"/>
@@ -287,27 +271,22 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="16"/>
       <name val="Trebuchet MS"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="18"/>
+      <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -515,160 +494,127 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="53">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" indent="1" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,34 +624,86 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff627c34"/>
-      <rgbColor rgb="ff99ccff"/>
-      <rgbColor rgb="ffff6600"/>
-      <rgbColor rgb="ff808080"/>
-      <rgbColor rgb="fffb0007"/>
-      <rgbColor rgb="ff9999ff"/>
-      <rgbColor rgb="ff666699"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF627C34"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFFB0007"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -714,7 +712,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" i="0" strike="noStrike" sz="1800" u="none">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -722,7 +720,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" i="0" strike="noStrike" sz="1800" u="none">
+              <a:rPr sz="1800" b="1" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -739,8 +737,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.115483"/>
           <c:y val="0"/>
-          <c:w val="0.420679"/>
-          <c:h val="0.157233"/>
+          <c:w val="0.42067900000000003"/>
+          <c:h val="0.15723300000000001"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -749,17 +747,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0601826"/>
-          <c:y val="0.157233"/>
-          <c:w val="0.589444"/>
-          <c:h val="0.742778"/>
+          <c:x val="6.0182600000000003E-2"/>
+          <c:y val="0.15723300000000001"/>
+          <c:w val="0.58944399999999997"/>
+          <c:h val="0.74277800000000005"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -770,7 +768,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet2'!$D$1</c:f>
+              <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -780,9 +778,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9999FF"/>
-            </a:solidFill>
             <a:ln w="25400" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="666699"/>
@@ -794,118 +789,87 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="9999FF"/>
-              </a:solidFill>
-              <a:ln w="25400" cap="flat">
-                <a:solidFill>
-                  <a:srgbClr val="666699"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Sheet2'!$A$2:$A$9</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>22-May-15</c:v>
+                  <c:v>42146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29-May-15</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-Jun-15</c:v>
+                  <c:v>42160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-Jun-15</c:v>
+                  <c:v>42167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19-Jun-15</c:v>
+                  <c:v>42174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26-Jun-15</c:v>
+                  <c:v>42181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-Jul-15</c:v>
+                  <c:v>42188</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet2'!$D$2:$D$9</c:f>
+              <c:f>Sheet2!$D$2:$D$9</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6885.000000</c:v>
+                  <c:v>6885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6844.500000</c:v>
+                  <c:v>6844.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6790.500000</c:v>
+                  <c:v>6790.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6718.500000</c:v>
+                  <c:v>6718.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6691.500000</c:v>
+                  <c:v>6691.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6646.500000</c:v>
+                  <c:v>6646.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6592.500000</c:v>
+                  <c:v>6592.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:smooth val="0"/>
+        <c:axId val="54491392"/>
+        <c:axId val="54501376"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2094734552"/>
+      <c:dateAx>
+        <c:axId val="54491392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,23 +893,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="54501376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="54501376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,16 +945,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="54491392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1750"/>
@@ -1012,10 +978,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.678619"/>
-          <c:y val="0.598798"/>
-          <c:w val="0.321381"/>
-          <c:h val="0.0790488"/>
+          <c:x val="0.67861899999999997"/>
+          <c:y val="0.59879800000000005"/>
+          <c:w val="0.32138100000000003"/>
+          <c:h val="7.9048800000000002E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1032,18 +998,20 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1058,13 +1026,20 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
+  <c:lang val="en-IN"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1073,7 +1048,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" i="0" strike="noStrike" sz="1800" u="none">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1081,7 +1056,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" i="0" strike="noStrike" sz="1800" u="none">
+              <a:rPr sz="1800" b="1" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1098,7 +1073,7 @@
           <c:yMode val="edge"/>
           <c:x val="0"/>
           <c:y val="0"/>
-          <c:w val="0.596141"/>
+          <c:w val="0.59614100000000003"/>
           <c:h val="0.271229"/>
         </c:manualLayout>
       </c:layout>
@@ -1108,17 +1083,17 @@
         <a:effectLst/>
       </c:spPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0852844"/>
+          <c:x val="8.5284399999999996E-2"/>
           <c:y val="0.271229"/>
-          <c:w val="0.488242"/>
-          <c:h val="0.62515"/>
+          <c:w val="0.48824200000000001"/>
+          <c:h val="0.62514999999999998"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1129,7 +1104,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet2'!$D$1</c:f>
+              <c:f>Sheet2!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1139,9 +1114,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9999FF"/>
-            </a:solidFill>
             <a:ln w="25400" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="666699"/>
@@ -1153,124 +1125,93 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="9999FF"/>
-              </a:solidFill>
-              <a:ln w="25400" cap="flat">
-                <a:solidFill>
-                  <a:srgbClr val="666699"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Sheet2'!$A$2:$A$10</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>22-May-15</c:v>
+                  <c:v>42146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29-May-15</c:v>
+                  <c:v>42153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5-Jun-15</c:v>
+                  <c:v>42160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12-Jun-15</c:v>
+                  <c:v>42167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19-Jun-15</c:v>
+                  <c:v>42174</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26-Jun-15</c:v>
+                  <c:v>42181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3-Jul-15</c:v>
+                  <c:v>42188</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-Jul-15</c:v>
+                  <c:v>42195</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet2'!$D$2:$D$10</c:f>
+              <c:f>Sheet2!$D$2:$D$10</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6885.000000</c:v>
+                  <c:v>6885</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6844.500000</c:v>
+                  <c:v>6844.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6790.500000</c:v>
+                  <c:v>6790.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6718.500000</c:v>
+                  <c:v>6718.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6691.500000</c:v>
+                  <c:v>6691.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6646.500000</c:v>
+                  <c:v>6646.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6592.500000</c:v>
+                  <c:v>6592.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6547.500000</c:v>
+                  <c:v>6547.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:smooth val="0"/>
+        <c:axId val="54522240"/>
+        <c:axId val="54523776"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="2094734552"/>
+      <c:dateAx>
+        <c:axId val="54522240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,23 +1235,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="54523776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="54523776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,16 +1287,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="54522240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1750"/>
@@ -1378,9 +1321,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.621035"/>
-          <c:y val="0.613642"/>
+          <c:y val="0.61364200000000002"/>
           <c:w val="0.378965"/>
-          <c:h val="0.0812928"/>
+          <c:h val="8.1292799999999998E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1397,18 +1340,20 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1423,11 +1368,16 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1441,7 +1391,7 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>175220</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Shape 2"/>
         <xdr:cNvSpPr/>
@@ -1465,7 +1415,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1475,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1489,18 +1439,18 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>12642</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7374669" y="2314267"/>
-        <a:ext cx="7550925" cy="2584701"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1519,18 +1469,18 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>129515</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6025338" y="3019946"/>
-        <a:ext cx="5328456" cy="2481670"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1540,7 +1490,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1672,7 +1622,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1748,7 +1698,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1767,7 +1717,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1797,7 +1747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1823,7 +1773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1849,7 +1799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1875,7 +1825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1901,7 +1851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1927,7 +1877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1953,7 +1903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1979,7 +1929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2005,7 +1955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2018,9 +1968,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2035,7 +1991,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -2043,7 +1999,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2062,7 +2018,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2088,7 +2044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2114,7 +2070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2140,7 +2096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2166,7 +2122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2192,7 +2148,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2218,7 +2174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2244,7 +2200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2270,7 +2226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2296,7 +2252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2309,9 +2265,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2325,7 +2287,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2344,7 +2306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2374,7 +2336,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2400,7 +2362,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2426,7 +2388,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2452,7 +2414,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2478,7 +2440,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2504,7 +2466,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2530,7 +2492,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2556,7 +2518,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2582,7 +2544,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2595,49 +2557,57 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q346"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV346"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.6719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.1719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="23" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1719" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="40.6719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.8516" style="1" customWidth="1"/>
-    <col min="14" max="14" width="28.8516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="39.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="1" customWidth="1"/>
-    <col min="18" max="256" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="27.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="39.42578125" style="1" customWidth="1"/>
+    <col min="17" max="256" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.6" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
@@ -2656,11 +2626,11 @@
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
     </row>
-    <row r="2" ht="18.5" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="7"/>
@@ -2679,11 +2649,11 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" ht="16.6" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7"/>
@@ -2702,67 +2672,67 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" ht="16.6" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" t="s" s="10">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s" s="10">
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H4" t="s" s="10">
+      <c r="H4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I4" t="s" s="10">
+      <c r="I4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J4" t="s" s="10">
+      <c r="J4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K4" t="s" s="10">
+      <c r="K4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s" s="10">
+      <c r="L4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M4" t="s" s="10">
+      <c r="M4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N4" t="s" s="10">
+      <c r="N4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O4" t="s" s="10">
+      <c r="O4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P4" t="s" s="10">
+      <c r="P4" s="10" t="s">
         <v>19</v>
       </c>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" ht="16.6" customHeight="1">
+    <row r="5" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" t="s" s="12">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="G5" t="s" s="10">
+      <c r="G5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="H5" s="11"/>
@@ -2776,7 +2746,7 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" ht="16.6" customHeight="1">
+    <row r="6" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -2795,8 +2765,8 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" ht="16.6" customHeight="1">
-      <c r="A7" t="s" s="15">
+    <row r="7" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="16"/>
@@ -2816,8 +2786,8 @@
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
     </row>
-    <row r="8" ht="16.6" customHeight="1">
-      <c r="A8" t="s" s="18">
+    <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="19">
@@ -2829,7 +2799,7 @@
       <c r="D8" s="7">
         <v>32</v>
       </c>
-      <c r="E8" t="s" s="20">
+      <c r="E8" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="21">
@@ -2844,13 +2814,13 @@
       <c r="I8" s="21">
         <v>42578</v>
       </c>
-      <c r="J8" t="s" s="20">
+      <c r="J8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K8" t="s" s="22">
+      <c r="K8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="L8" t="s" s="20">
+      <c r="L8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="M8" s="21">
@@ -2861,8 +2831,8 @@
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" ht="16.6" customHeight="1">
-      <c r="A9" t="s" s="18">
+    <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="11">
@@ -2874,7 +2844,7 @@
       <c r="D9" s="7">
         <v>45</v>
       </c>
-      <c r="E9" t="s" s="20">
+      <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="21">
@@ -2889,13 +2859,13 @@
       <c r="I9" s="21">
         <v>42573</v>
       </c>
-      <c r="J9" t="s" s="20">
+      <c r="J9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="K9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L9" t="s" s="20">
+      <c r="L9" s="20" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="21">
@@ -2906,8 +2876,8 @@
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" ht="184.6" customHeight="1">
-      <c r="A10" t="s" s="18">
+    <row r="10" spans="1:17" ht="184.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="11">
@@ -2919,7 +2889,7 @@
       <c r="D10" s="7">
         <v>64</v>
       </c>
-      <c r="E10" t="s" s="20">
+      <c r="E10" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="21">
@@ -2934,10 +2904,10 @@
       <c r="I10" s="21">
         <v>42583</v>
       </c>
-      <c r="J10" t="s" s="20">
+      <c r="J10" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="K10" t="s" s="23">
+      <c r="K10" s="23" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="7"/>
@@ -2947,8 +2917,8 @@
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" ht="24" customHeight="1">
-      <c r="A11" t="s" s="18">
+    <row r="11" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="25">
@@ -2960,7 +2930,7 @@
       <c r="D11" s="7">
         <v>64</v>
       </c>
-      <c r="E11" t="s" s="20">
+      <c r="E11" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="21">
@@ -2975,7 +2945,7 @@
       <c r="I11" s="21">
         <v>42578</v>
       </c>
-      <c r="J11" t="s" s="20">
+      <c r="J11" s="20" t="s">
         <v>26</v>
       </c>
       <c r="K11" s="8"/>
@@ -2986,8 +2956,8 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" ht="16.6" customHeight="1">
-      <c r="A12" t="s" s="18">
+    <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="25">
@@ -2999,7 +2969,7 @@
       <c r="D12" s="7">
         <v>64</v>
       </c>
-      <c r="E12" t="s" s="20">
+      <c r="E12" s="20" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="21">
@@ -3014,10 +2984,10 @@
       <c r="I12" s="21">
         <v>42580</v>
       </c>
-      <c r="J12" t="s" s="20">
+      <c r="J12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="K12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="L12" s="7"/>
@@ -3027,8 +2997,8 @@
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" ht="16.6" customHeight="1">
-      <c r="A13" t="s" s="18">
+    <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="25">
@@ -3040,7 +3010,7 @@
       <c r="D13" s="7">
         <v>52</v>
       </c>
-      <c r="E13" t="s" s="20">
+      <c r="E13" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="21">
@@ -3055,7 +3025,7 @@
       <c r="I13" s="24">
         <v>42578</v>
       </c>
-      <c r="J13" t="s" s="20">
+      <c r="J13" s="20" t="s">
         <v>40</v>
       </c>
       <c r="K13" s="8"/>
@@ -3066,8 +3036,8 @@
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" ht="16.6" customHeight="1">
-      <c r="A14" t="s" s="26">
+    <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="7">
@@ -3079,8 +3049,8 @@
       <c r="D14" s="7">
         <v>16</v>
       </c>
-      <c r="E14" t="s" s="20">
-        <v>28</v>
+      <c r="E14" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="F14" s="21">
         <v>42585</v>
@@ -3088,7 +3058,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="21"/>
-      <c r="J14" t="s" s="20">
+      <c r="J14" s="20" t="s">
         <v>42</v>
       </c>
       <c r="K14" s="8"/>
@@ -3099,8 +3069,8 @@
       <c r="P14" s="8"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" ht="16.6" customHeight="1">
-      <c r="A15" t="s" s="18">
+    <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B15" s="19">
@@ -3112,8 +3082,8 @@
       <c r="D15" s="7">
         <v>16</v>
       </c>
-      <c r="E15" t="s" s="20">
-        <v>30</v>
+      <c r="E15" s="52" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="21">
         <v>42585</v>
@@ -3121,7 +3091,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="21"/>
-      <c r="J15" t="s" s="20">
+      <c r="J15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="K15" s="8"/>
@@ -3132,8 +3102,8 @@
       <c r="P15" s="8"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" ht="27" customHeight="1">
-      <c r="A16" t="s" s="18">
+    <row r="16" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B16" s="19">
@@ -3142,10 +3112,10 @@
       <c r="C16" s="19">
         <v>48</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>56</v>
       </c>
-      <c r="E16" t="s" s="20">
+      <c r="E16" s="20" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="21">
@@ -3154,7 +3124,7 @@
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="21"/>
-      <c r="J16" t="s" s="20">
+      <c r="J16" s="20" t="s">
         <v>45</v>
       </c>
       <c r="K16" s="8"/>
@@ -3165,8 +3135,8 @@
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" ht="16.6" customHeight="1">
-      <c r="A17" t="s" s="18">
+    <row r="17" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="19">
@@ -3175,10 +3145,10 @@
       <c r="C17" s="19">
         <v>10</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>16</v>
       </c>
-      <c r="E17" t="s" s="20">
+      <c r="E17" s="20" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="21">
@@ -3187,7 +3157,7 @@
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="21"/>
-      <c r="J17" t="s" s="20">
+      <c r="J17" s="20" t="s">
         <v>45</v>
       </c>
       <c r="K17" s="8"/>
@@ -3198,8 +3168,8 @@
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" ht="16.6" customHeight="1">
-      <c r="A18" t="s" s="15">
+    <row r="18" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="27"/>
@@ -3219,7 +3189,7 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" ht="16.6" customHeight="1">
+    <row r="19" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -3238,7 +3208,7 @@
       <c r="P19" s="8"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" ht="16.6" customHeight="1">
+    <row r="20" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -3257,7 +3227,7 @@
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" ht="16.6" customHeight="1">
+    <row r="21" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="28"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -3276,7 +3246,7 @@
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" ht="16.6" customHeight="1">
+    <row r="22" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="28"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -3295,8 +3265,8 @@
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" ht="16.6" customHeight="1">
-      <c r="A23" t="s" s="29">
+    <row r="23" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="7">
@@ -3325,7 +3295,7 @@
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" ht="16.6" customHeight="1">
+    <row r="24" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -3344,7 +3314,7 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" ht="16.6" customHeight="1">
+    <row r="25" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -3363,7 +3333,7 @@
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" ht="16.6" customHeight="1">
+    <row r="26" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -3382,7 +3352,7 @@
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" ht="16.6" customHeight="1">
+    <row r="27" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -3401,7 +3371,7 @@
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" ht="16.6" customHeight="1">
+    <row r="28" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -3420,7 +3390,7 @@
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" ht="16.6" customHeight="1">
+    <row r="29" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -3439,7 +3409,7 @@
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" ht="16.6" customHeight="1">
+    <row r="30" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -3458,7 +3428,7 @@
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" ht="16.6" customHeight="1">
+    <row r="31" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -3477,7 +3447,7 @@
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" ht="16.6" customHeight="1">
+    <row r="32" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3496,7 +3466,7 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" ht="16.6" customHeight="1">
+    <row r="33" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -3515,7 +3485,7 @@
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" ht="16.6" customHeight="1">
+    <row r="34" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -3534,7 +3504,7 @@
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" ht="16.6" customHeight="1">
+    <row r="35" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -3553,7 +3523,7 @@
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" ht="16.6" customHeight="1">
+    <row r="36" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -3572,7 +3542,7 @@
       <c r="P36" s="8"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" ht="16.6" customHeight="1">
+    <row r="37" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -3591,7 +3561,7 @@
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" ht="16.6" customHeight="1">
+    <row r="38" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -3610,7 +3580,7 @@
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" ht="16.6" customHeight="1">
+    <row r="39" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -3629,7 +3599,7 @@
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" ht="16.6" customHeight="1">
+    <row r="40" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -3648,7 +3618,7 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" ht="16.6" customHeight="1">
+    <row r="41" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3667,7 +3637,7 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" ht="16.6" customHeight="1">
+    <row r="42" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -3686,7 +3656,7 @@
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" ht="16.6" customHeight="1">
+    <row r="43" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -3705,7 +3675,7 @@
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" ht="16.6" customHeight="1">
+    <row r="44" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -3724,7 +3694,7 @@
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" ht="16.6" customHeight="1">
+    <row r="45" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -3743,7 +3713,7 @@
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" ht="16.6" customHeight="1">
+    <row r="46" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3762,7 +3732,7 @@
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" ht="16.6" customHeight="1">
+    <row r="47" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -3781,7 +3751,7 @@
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" ht="16.6" customHeight="1">
+    <row r="48" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -3800,7 +3770,7 @@
       <c r="P48" s="8"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" ht="16.6" customHeight="1">
+    <row r="49" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -3819,7 +3789,7 @@
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" ht="16.6" customHeight="1">
+    <row r="50" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -3838,7 +3808,7 @@
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" ht="16.6" customHeight="1">
+    <row r="51" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
@@ -3857,7 +3827,7 @@
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" ht="16.6" customHeight="1">
+    <row r="52" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -3876,7 +3846,7 @@
       <c r="P52" s="8"/>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" ht="16.6" customHeight="1">
+    <row r="53" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="19"/>
       <c r="B53" s="7"/>
       <c r="C53" s="19"/>
@@ -3895,7 +3865,7 @@
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" ht="16.6" customHeight="1">
+    <row r="54" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -3914,7 +3884,7 @@
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" ht="16.6" customHeight="1">
+    <row r="55" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
@@ -3933,7 +3903,7 @@
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" ht="16.6" customHeight="1">
+    <row r="56" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="28"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
@@ -3952,7 +3922,7 @@
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
     </row>
-    <row r="57" ht="16.6" customHeight="1">
+    <row r="57" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="28"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -3971,7 +3941,7 @@
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
     </row>
-    <row r="58" ht="16.6" customHeight="1">
+    <row r="58" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="28"/>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -3990,7 +3960,7 @@
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
     </row>
-    <row r="59" ht="16.6" customHeight="1">
+    <row r="59" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="28"/>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
@@ -4009,7 +3979,7 @@
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" ht="16.6" customHeight="1">
+    <row r="60" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19"/>
       <c r="B60" s="7"/>
       <c r="C60" s="19"/>
@@ -4028,7 +3998,7 @@
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" ht="16.6" customHeight="1">
+    <row r="61" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -4047,7 +4017,7 @@
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" ht="16.6" customHeight="1">
+    <row r="62" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="28"/>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
@@ -4066,7 +4036,7 @@
       <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" ht="16.6" customHeight="1">
+    <row r="63" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="28"/>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -4085,7 +4055,7 @@
       <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" ht="16.6" customHeight="1">
+    <row r="64" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="28"/>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -4104,7 +4074,7 @@
       <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" ht="16.6" customHeight="1">
+    <row r="65" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="28"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -4123,7 +4093,7 @@
       <c r="P65" s="8"/>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" ht="16.6" customHeight="1">
+    <row r="66" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="28"/>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
@@ -4142,7 +4112,7 @@
       <c r="P66" s="8"/>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" ht="16.6" customHeight="1">
+    <row r="67" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="28"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -4161,7 +4131,7 @@
       <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" ht="16.6" customHeight="1">
+    <row r="68" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="28"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -4180,7 +4150,7 @@
       <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
     </row>
-    <row r="69" ht="16.6" customHeight="1">
+    <row r="69" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="19"/>
       <c r="B69" s="7"/>
       <c r="C69" s="19"/>
@@ -4199,7 +4169,7 @@
       <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
     </row>
-    <row r="70" ht="16.6" customHeight="1">
+    <row r="70" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="28"/>
       <c r="B70" s="19"/>
       <c r="C70" s="19"/>
@@ -4218,7 +4188,7 @@
       <c r="P70" s="8"/>
       <c r="Q70" s="8"/>
     </row>
-    <row r="71" ht="16.6" customHeight="1">
+    <row r="71" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="28"/>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
@@ -4237,7 +4207,7 @@
       <c r="P71" s="8"/>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" ht="16.6" customHeight="1">
+    <row r="72" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="28"/>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
@@ -4256,7 +4226,7 @@
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
     </row>
-    <row r="73" ht="16.6" customHeight="1">
+    <row r="73" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="28"/>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
@@ -4275,7 +4245,7 @@
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
     </row>
-    <row r="74" ht="16.6" customHeight="1">
+    <row r="74" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="28"/>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
@@ -4294,7 +4264,7 @@
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" ht="16.6" customHeight="1">
+    <row r="75" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="28"/>
       <c r="B75" s="19"/>
       <c r="C75" s="19"/>
@@ -4313,7 +4283,7 @@
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" ht="16.6" customHeight="1">
+    <row r="76" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="28"/>
       <c r="B76" s="19"/>
       <c r="C76" s="19"/>
@@ -4332,7 +4302,7 @@
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" ht="16.6" customHeight="1">
+    <row r="77" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="7"/>
       <c r="C77" s="19"/>
@@ -4351,7 +4321,7 @@
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" ht="16.6" customHeight="1">
+    <row r="78" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="28"/>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
@@ -4370,7 +4340,7 @@
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" ht="16.6" customHeight="1">
+    <row r="79" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="28"/>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
@@ -4389,7 +4359,7 @@
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" ht="16.6" customHeight="1">
+    <row r="80" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="28"/>
       <c r="B80" s="19"/>
       <c r="C80" s="19"/>
@@ -4408,7 +4378,7 @@
       <c r="P80" s="8"/>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" ht="16.6" customHeight="1">
+    <row r="81" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="28"/>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -4427,7 +4397,7 @@
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" ht="16.6" customHeight="1">
+    <row r="82" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="28"/>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
@@ -4446,7 +4416,7 @@
       <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
     </row>
-    <row r="83" ht="16.6" customHeight="1">
+    <row r="83" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="28"/>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
@@ -4465,7 +4435,7 @@
       <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" ht="16.6" customHeight="1">
+    <row r="84" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="28"/>
       <c r="B84" s="19"/>
       <c r="C84" s="19"/>
@@ -4484,7 +4454,7 @@
       <c r="P84" s="8"/>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" ht="16.6" customHeight="1">
+    <row r="85" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="28"/>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
@@ -4503,7 +4473,7 @@
       <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" ht="16.6" customHeight="1">
+    <row r="86" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="28"/>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -4522,7 +4492,7 @@
       <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
     </row>
-    <row r="87" ht="16.6" customHeight="1">
+    <row r="87" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="28"/>
       <c r="B87" s="19"/>
       <c r="C87" s="19"/>
@@ -4541,7 +4511,7 @@
       <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
     </row>
-    <row r="88" ht="16.6" customHeight="1">
+    <row r="88" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="19"/>
       <c r="B88" s="7"/>
       <c r="C88" s="19"/>
@@ -4560,7 +4530,7 @@
       <c r="P88" s="8"/>
       <c r="Q88" s="8"/>
     </row>
-    <row r="89" ht="16.6" customHeight="1">
+    <row r="89" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="28"/>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
@@ -4579,7 +4549,7 @@
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
     </row>
-    <row r="90" ht="16.6" customHeight="1">
+    <row r="90" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="28"/>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -4598,7 +4568,7 @@
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
     </row>
-    <row r="91" ht="16.6" customHeight="1">
+    <row r="91" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="28"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -4617,7 +4587,7 @@
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
     </row>
-    <row r="92" ht="16.6" customHeight="1">
+    <row r="92" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="28"/>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
@@ -4636,7 +4606,7 @@
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
     </row>
-    <row r="93" ht="16.6" customHeight="1">
+    <row r="93" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="28"/>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
@@ -4655,7 +4625,7 @@
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
     </row>
-    <row r="94" ht="16.6" customHeight="1">
+    <row r="94" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="28"/>
       <c r="B94" s="19"/>
       <c r="C94" s="19"/>
@@ -4674,7 +4644,7 @@
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
     </row>
-    <row r="95" ht="16.6" customHeight="1">
+    <row r="95" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="19"/>
       <c r="B95" s="7"/>
       <c r="C95" s="19"/>
@@ -4693,7 +4663,7 @@
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
     </row>
-    <row r="96" ht="16.6" customHeight="1">
+    <row r="96" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="28"/>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
@@ -4712,7 +4682,7 @@
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
     </row>
-    <row r="97" ht="16.6" customHeight="1">
+    <row r="97" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="28"/>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
@@ -4731,7 +4701,7 @@
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
     </row>
-    <row r="98" ht="16.6" customHeight="1">
+    <row r="98" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="19"/>
       <c r="B98" s="30"/>
       <c r="C98" s="19"/>
@@ -4750,7 +4720,7 @@
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
     </row>
-    <row r="99" ht="16.6" customHeight="1">
+    <row r="99" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="28"/>
       <c r="B99" s="19"/>
       <c r="C99" s="19"/>
@@ -4769,7 +4739,7 @@
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
     </row>
-    <row r="100" ht="16.6" customHeight="1">
+    <row r="100" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="28"/>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
@@ -4788,7 +4758,7 @@
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
     </row>
-    <row r="101" ht="16.6" customHeight="1">
+    <row r="101" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="28"/>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
@@ -4807,7 +4777,7 @@
       <c r="P101" s="8"/>
       <c r="Q101" s="8"/>
     </row>
-    <row r="102" ht="16.6" customHeight="1">
+    <row r="102" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="28"/>
       <c r="B102" s="19"/>
       <c r="C102" s="19"/>
@@ -4826,7 +4796,7 @@
       <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
     </row>
-    <row r="103" ht="16.6" customHeight="1">
+    <row r="103" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="19"/>
       <c r="B103" s="7"/>
       <c r="C103" s="19"/>
@@ -4845,7 +4815,7 @@
       <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
     </row>
-    <row r="104" ht="16.6" customHeight="1">
+    <row r="104" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="28"/>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
@@ -4864,7 +4834,7 @@
       <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
     </row>
-    <row r="105" ht="16.6" customHeight="1">
+    <row r="105" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="28"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -4883,7 +4853,7 @@
       <c r="P105" s="8"/>
       <c r="Q105" s="8"/>
     </row>
-    <row r="106" ht="16.6" customHeight="1">
+    <row r="106" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="28"/>
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
@@ -4902,7 +4872,7 @@
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
     </row>
-    <row r="107" ht="16.6" customHeight="1">
+    <row r="107" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="28"/>
       <c r="B107" s="19"/>
       <c r="C107" s="19"/>
@@ -4921,7 +4891,7 @@
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
     </row>
-    <row r="108" ht="16.6" customHeight="1">
+    <row r="108" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="19"/>
       <c r="B108" s="7"/>
       <c r="C108" s="19"/>
@@ -4940,7 +4910,7 @@
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
     </row>
-    <row r="109" ht="16.6" customHeight="1">
+    <row r="109" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="28"/>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
@@ -4959,7 +4929,7 @@
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
     </row>
-    <row r="110" ht="16.6" customHeight="1">
+    <row r="110" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="28"/>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
@@ -4978,7 +4948,7 @@
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
     </row>
-    <row r="111" ht="16.6" customHeight="1">
+    <row r="111" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="28"/>
       <c r="B111" s="19"/>
       <c r="C111" s="19"/>
@@ -4997,7 +4967,7 @@
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
     </row>
-    <row r="112" ht="16.6" customHeight="1">
+    <row r="112" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="28"/>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
@@ -5016,7 +4986,7 @@
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
     </row>
-    <row r="113" ht="16.6" customHeight="1">
+    <row r="113" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="28"/>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
@@ -5035,7 +5005,7 @@
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
     </row>
-    <row r="114" ht="16.6" customHeight="1">
+    <row r="114" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="28"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
@@ -5054,7 +5024,7 @@
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
     </row>
-    <row r="115" ht="16.6" customHeight="1">
+    <row r="115" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="19"/>
       <c r="B115" s="7"/>
       <c r="C115" s="19"/>
@@ -5073,7 +5043,7 @@
       <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
     </row>
-    <row r="116" ht="16.6" customHeight="1">
+    <row r="116" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="28"/>
       <c r="B116" s="19"/>
       <c r="C116" s="19"/>
@@ -5092,7 +5062,7 @@
       <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
     </row>
-    <row r="117" ht="16.6" customHeight="1">
+    <row r="117" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="28"/>
       <c r="B117" s="19"/>
       <c r="C117" s="19"/>
@@ -5111,7 +5081,7 @@
       <c r="P117" s="8"/>
       <c r="Q117" s="8"/>
     </row>
-    <row r="118" ht="16.6" customHeight="1">
+    <row r="118" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="28"/>
       <c r="B118" s="19"/>
       <c r="C118" s="19"/>
@@ -5130,7 +5100,7 @@
       <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
     </row>
-    <row r="119" ht="16.6" customHeight="1">
+    <row r="119" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="28"/>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
@@ -5149,7 +5119,7 @@
       <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
     </row>
-    <row r="120" ht="16.6" customHeight="1">
+    <row r="120" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="28"/>
       <c r="B120" s="19"/>
       <c r="C120" s="19"/>
@@ -5168,7 +5138,7 @@
       <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
     </row>
-    <row r="121" ht="16.6" customHeight="1">
+    <row r="121" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="28"/>
       <c r="B121" s="19"/>
       <c r="C121" s="19"/>
@@ -5187,7 +5157,7 @@
       <c r="P121" s="8"/>
       <c r="Q121" s="8"/>
     </row>
-    <row r="122" ht="16.6" customHeight="1">
+    <row r="122" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="28"/>
       <c r="B122" s="19"/>
       <c r="C122" s="19"/>
@@ -5206,7 +5176,7 @@
       <c r="P122" s="8"/>
       <c r="Q122" s="8"/>
     </row>
-    <row r="123" ht="16.6" customHeight="1">
+    <row r="123" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="28"/>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
@@ -5225,7 +5195,7 @@
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
     </row>
-    <row r="124" ht="16.6" customHeight="1">
+    <row r="124" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="28"/>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
@@ -5244,7 +5214,7 @@
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
     </row>
-    <row r="125" ht="16.6" customHeight="1">
+    <row r="125" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="28"/>
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
@@ -5263,7 +5233,7 @@
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
     </row>
-    <row r="126" ht="16.6" customHeight="1">
+    <row r="126" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="28"/>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
@@ -5282,7 +5252,7 @@
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
     </row>
-    <row r="127" ht="16.6" customHeight="1">
+    <row r="127" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="28"/>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
@@ -5301,7 +5271,7 @@
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
     </row>
-    <row r="128" ht="16.6" customHeight="1">
+    <row r="128" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="28"/>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
@@ -5320,7 +5290,7 @@
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
     </row>
-    <row r="129" ht="16.6" customHeight="1">
+    <row r="129" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="28"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
@@ -5339,7 +5309,7 @@
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
     </row>
-    <row r="130" ht="16.6" customHeight="1">
+    <row r="130" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="19"/>
       <c r="B130" s="7"/>
       <c r="C130" s="19"/>
@@ -5358,7 +5328,7 @@
       <c r="P130" s="8"/>
       <c r="Q130" s="8"/>
     </row>
-    <row r="131" ht="16.6" customHeight="1">
+    <row r="131" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="28"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
@@ -5377,7 +5347,7 @@
       <c r="P131" s="8"/>
       <c r="Q131" s="8"/>
     </row>
-    <row r="132" ht="16.6" customHeight="1">
+    <row r="132" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="28"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
@@ -5396,7 +5366,7 @@
       <c r="P132" s="8"/>
       <c r="Q132" s="8"/>
     </row>
-    <row r="133" ht="16.6" customHeight="1">
+    <row r="133" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="28"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -5415,7 +5385,7 @@
       <c r="P133" s="8"/>
       <c r="Q133" s="8"/>
     </row>
-    <row r="134" ht="16.6" customHeight="1">
+    <row r="134" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="28"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -5434,7 +5404,7 @@
       <c r="P134" s="8"/>
       <c r="Q134" s="8"/>
     </row>
-    <row r="135" ht="16.6" customHeight="1">
+    <row r="135" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="28"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -5453,7 +5423,7 @@
       <c r="P135" s="8"/>
       <c r="Q135" s="8"/>
     </row>
-    <row r="136" ht="16.6" customHeight="1">
+    <row r="136" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="28"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -5472,7 +5442,7 @@
       <c r="P136" s="8"/>
       <c r="Q136" s="8"/>
     </row>
-    <row r="137" ht="16.6" customHeight="1">
+    <row r="137" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="19"/>
       <c r="B137" s="7"/>
       <c r="C137" s="19"/>
@@ -5491,7 +5461,7 @@
       <c r="P137" s="8"/>
       <c r="Q137" s="8"/>
     </row>
-    <row r="138" ht="16.6" customHeight="1">
+    <row r="138" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="28"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -5510,7 +5480,7 @@
       <c r="P138" s="8"/>
       <c r="Q138" s="8"/>
     </row>
-    <row r="139" ht="16.6" customHeight="1">
+    <row r="139" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="28"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -5529,7 +5499,7 @@
       <c r="P139" s="8"/>
       <c r="Q139" s="8"/>
     </row>
-    <row r="140" ht="16.6" customHeight="1">
+    <row r="140" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="28"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -5548,7 +5518,7 @@
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
     </row>
-    <row r="141" ht="16.6" customHeight="1">
+    <row r="141" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="28"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -5567,7 +5537,7 @@
       <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
     </row>
-    <row r="142" ht="16.6" customHeight="1">
+    <row r="142" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="28"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -5586,7 +5556,7 @@
       <c r="P142" s="8"/>
       <c r="Q142" s="8"/>
     </row>
-    <row r="143" ht="16.6" customHeight="1">
+    <row r="143" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="28"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -5605,7 +5575,7 @@
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
     </row>
-    <row r="144" ht="16.6" customHeight="1">
+    <row r="144" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="28"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -5624,7 +5594,7 @@
       <c r="P144" s="8"/>
       <c r="Q144" s="8"/>
     </row>
-    <row r="145" ht="16.6" customHeight="1">
+    <row r="145" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="28"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -5643,7 +5613,7 @@
       <c r="P145" s="8"/>
       <c r="Q145" s="8"/>
     </row>
-    <row r="146" ht="16.6" customHeight="1">
+    <row r="146" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="28"/>
       <c r="B146" s="19"/>
       <c r="C146" s="19"/>
@@ -5662,7 +5632,7 @@
       <c r="P146" s="8"/>
       <c r="Q146" s="8"/>
     </row>
-    <row r="147" ht="16.6" customHeight="1">
+    <row r="147" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="28"/>
       <c r="B147" s="19"/>
       <c r="C147" s="19"/>
@@ -5681,7 +5651,7 @@
       <c r="P147" s="8"/>
       <c r="Q147" s="8"/>
     </row>
-    <row r="148" ht="16.6" customHeight="1">
+    <row r="148" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="28"/>
       <c r="B148" s="19"/>
       <c r="C148" s="19"/>
@@ -5700,7 +5670,7 @@
       <c r="P148" s="8"/>
       <c r="Q148" s="8"/>
     </row>
-    <row r="149" ht="16.6" customHeight="1">
+    <row r="149" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="28"/>
       <c r="B149" s="19"/>
       <c r="C149" s="19"/>
@@ -5719,7 +5689,7 @@
       <c r="P149" s="8"/>
       <c r="Q149" s="8"/>
     </row>
-    <row r="150" ht="16.6" customHeight="1">
+    <row r="150" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="28"/>
       <c r="B150" s="19"/>
       <c r="C150" s="19"/>
@@ -5738,7 +5708,7 @@
       <c r="P150" s="8"/>
       <c r="Q150" s="8"/>
     </row>
-    <row r="151" ht="16.6" customHeight="1">
+    <row r="151" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="28"/>
       <c r="B151" s="19"/>
       <c r="C151" s="19"/>
@@ -5757,7 +5727,7 @@
       <c r="P151" s="8"/>
       <c r="Q151" s="8"/>
     </row>
-    <row r="152" ht="16.6" customHeight="1">
+    <row r="152" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="19"/>
       <c r="B152" s="7"/>
       <c r="C152" s="19"/>
@@ -5776,7 +5746,7 @@
       <c r="P152" s="8"/>
       <c r="Q152" s="8"/>
     </row>
-    <row r="153" ht="16.6" customHeight="1">
+    <row r="153" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="28"/>
       <c r="B153" s="19"/>
       <c r="C153" s="19"/>
@@ -5795,7 +5765,7 @@
       <c r="P153" s="8"/>
       <c r="Q153" s="8"/>
     </row>
-    <row r="154" ht="16.6" customHeight="1">
+    <row r="154" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="28"/>
       <c r="B154" s="19"/>
       <c r="C154" s="19"/>
@@ -5814,7 +5784,7 @@
       <c r="P154" s="8"/>
       <c r="Q154" s="8"/>
     </row>
-    <row r="155" ht="16.6" customHeight="1">
+    <row r="155" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="19"/>
       <c r="B155" s="7"/>
       <c r="C155" s="19"/>
@@ -5833,7 +5803,7 @@
       <c r="P155" s="8"/>
       <c r="Q155" s="8"/>
     </row>
-    <row r="156" ht="16.6" customHeight="1">
+    <row r="156" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="28"/>
       <c r="B156" s="19"/>
       <c r="C156" s="19"/>
@@ -5852,7 +5822,7 @@
       <c r="P156" s="8"/>
       <c r="Q156" s="8"/>
     </row>
-    <row r="157" ht="16.6" customHeight="1">
+    <row r="157" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="28"/>
       <c r="B157" s="19"/>
       <c r="C157" s="19"/>
@@ -5871,7 +5841,7 @@
       <c r="P157" s="8"/>
       <c r="Q157" s="8"/>
     </row>
-    <row r="158" ht="16.6" customHeight="1">
+    <row r="158" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="19"/>
       <c r="B158" s="7"/>
       <c r="C158" s="19"/>
@@ -5890,7 +5860,7 @@
       <c r="P158" s="8"/>
       <c r="Q158" s="8"/>
     </row>
-    <row r="159" ht="16.6" customHeight="1">
+    <row r="159" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="28"/>
       <c r="B159" s="19"/>
       <c r="C159" s="19"/>
@@ -5909,7 +5879,7 @@
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
     </row>
-    <row r="160" ht="16.6" customHeight="1">
+    <row r="160" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="28"/>
       <c r="B160" s="19"/>
       <c r="C160" s="19"/>
@@ -5928,7 +5898,7 @@
       <c r="P160" s="8"/>
       <c r="Q160" s="8"/>
     </row>
-    <row r="161" ht="16.6" customHeight="1">
+    <row r="161" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="28"/>
       <c r="B161" s="19"/>
       <c r="C161" s="19"/>
@@ -5947,7 +5917,7 @@
       <c r="P161" s="8"/>
       <c r="Q161" s="8"/>
     </row>
-    <row r="162" ht="16.6" customHeight="1">
+    <row r="162" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="28"/>
       <c r="B162" s="19"/>
       <c r="C162" s="19"/>
@@ -5966,7 +5936,7 @@
       <c r="P162" s="8"/>
       <c r="Q162" s="8"/>
     </row>
-    <row r="163" ht="16.6" customHeight="1">
+    <row r="163" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="28"/>
       <c r="B163" s="19"/>
       <c r="C163" s="19"/>
@@ -5985,7 +5955,7 @@
       <c r="P163" s="8"/>
       <c r="Q163" s="8"/>
     </row>
-    <row r="164" ht="16.6" customHeight="1">
+    <row r="164" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="28"/>
       <c r="B164" s="19"/>
       <c r="C164" s="19"/>
@@ -6004,7 +5974,7 @@
       <c r="P164" s="8"/>
       <c r="Q164" s="8"/>
     </row>
-    <row r="165" ht="16.6" customHeight="1">
+    <row r="165" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="28"/>
       <c r="B165" s="19"/>
       <c r="C165" s="19"/>
@@ -6023,7 +5993,7 @@
       <c r="P165" s="8"/>
       <c r="Q165" s="8"/>
     </row>
-    <row r="166" ht="16.6" customHeight="1">
+    <row r="166" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="28"/>
       <c r="B166" s="19"/>
       <c r="C166" s="19"/>
@@ -6042,7 +6012,7 @@
       <c r="P166" s="8"/>
       <c r="Q166" s="8"/>
     </row>
-    <row r="167" ht="16.6" customHeight="1">
+    <row r="167" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="28"/>
       <c r="B167" s="19"/>
       <c r="C167" s="19"/>
@@ -6061,7 +6031,7 @@
       <c r="P167" s="8"/>
       <c r="Q167" s="8"/>
     </row>
-    <row r="168" ht="16.6" customHeight="1">
+    <row r="168" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="28"/>
       <c r="B168" s="19"/>
       <c r="C168" s="19"/>
@@ -6080,7 +6050,7 @@
       <c r="P168" s="8"/>
       <c r="Q168" s="8"/>
     </row>
-    <row r="169" ht="16.6" customHeight="1">
+    <row r="169" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="28"/>
       <c r="B169" s="19"/>
       <c r="C169" s="19"/>
@@ -6099,7 +6069,7 @@
       <c r="P169" s="8"/>
       <c r="Q169" s="8"/>
     </row>
-    <row r="170" ht="16.6" customHeight="1">
+    <row r="170" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="28"/>
       <c r="B170" s="19"/>
       <c r="C170" s="19"/>
@@ -6118,7 +6088,7 @@
       <c r="P170" s="8"/>
       <c r="Q170" s="8"/>
     </row>
-    <row r="171" ht="16.6" customHeight="1">
+    <row r="171" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="28"/>
       <c r="B171" s="19"/>
       <c r="C171" s="19"/>
@@ -6137,7 +6107,7 @@
       <c r="P171" s="8"/>
       <c r="Q171" s="8"/>
     </row>
-    <row r="172" ht="16.6" customHeight="1">
+    <row r="172" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="28"/>
       <c r="B172" s="19"/>
       <c r="C172" s="19"/>
@@ -6156,7 +6126,7 @@
       <c r="P172" s="8"/>
       <c r="Q172" s="8"/>
     </row>
-    <row r="173" ht="16.6" customHeight="1">
+    <row r="173" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="28"/>
       <c r="B173" s="19"/>
       <c r="C173" s="19"/>
@@ -6175,7 +6145,7 @@
       <c r="P173" s="8"/>
       <c r="Q173" s="8"/>
     </row>
-    <row r="174" ht="16.6" customHeight="1">
+    <row r="174" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="28"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
@@ -6194,7 +6164,7 @@
       <c r="P174" s="8"/>
       <c r="Q174" s="8"/>
     </row>
-    <row r="175" ht="16.6" customHeight="1">
+    <row r="175" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="19"/>
       <c r="B175" s="7"/>
       <c r="C175" s="19"/>
@@ -6213,7 +6183,7 @@
       <c r="P175" s="8"/>
       <c r="Q175" s="8"/>
     </row>
-    <row r="176" ht="16.6" customHeight="1">
+    <row r="176" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="28"/>
       <c r="B176" s="19"/>
       <c r="C176" s="19"/>
@@ -6232,7 +6202,7 @@
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
     </row>
-    <row r="177" ht="16.6" customHeight="1">
+    <row r="177" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="28"/>
       <c r="B177" s="19"/>
       <c r="C177" s="19"/>
@@ -6251,7 +6221,7 @@
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
     </row>
-    <row r="178" ht="16.6" customHeight="1">
+    <row r="178" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="B178" s="19"/>
       <c r="C178" s="19"/>
@@ -6270,7 +6240,7 @@
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
     </row>
-    <row r="179" ht="16.6" customHeight="1">
+    <row r="179" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="28"/>
       <c r="B179" s="19"/>
       <c r="C179" s="19"/>
@@ -6289,7 +6259,7 @@
       <c r="P179" s="8"/>
       <c r="Q179" s="8"/>
     </row>
-    <row r="180" ht="16.6" customHeight="1">
+    <row r="180" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="19"/>
       <c r="B180" s="7"/>
       <c r="C180" s="19"/>
@@ -6308,7 +6278,7 @@
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
     </row>
-    <row r="181" ht="16.6" customHeight="1">
+    <row r="181" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="28"/>
       <c r="B181" s="19"/>
       <c r="C181" s="19"/>
@@ -6327,7 +6297,7 @@
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
     </row>
-    <row r="182" ht="16.6" customHeight="1">
+    <row r="182" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="28"/>
       <c r="B182" s="19"/>
       <c r="C182" s="19"/>
@@ -6346,7 +6316,7 @@
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
     </row>
-    <row r="183" ht="16.6" customHeight="1">
+    <row r="183" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="19"/>
       <c r="B183" s="7"/>
       <c r="C183" s="19"/>
@@ -6365,7 +6335,7 @@
       <c r="P183" s="8"/>
       <c r="Q183" s="8"/>
     </row>
-    <row r="184" ht="16.6" customHeight="1">
+    <row r="184" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="28"/>
       <c r="B184" s="19"/>
       <c r="C184" s="19"/>
@@ -6384,7 +6354,7 @@
       <c r="P184" s="8"/>
       <c r="Q184" s="8"/>
     </row>
-    <row r="185" ht="16.6" customHeight="1">
+    <row r="185" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="28"/>
       <c r="B185" s="19"/>
       <c r="C185" s="19"/>
@@ -6403,7 +6373,7 @@
       <c r="P185" s="8"/>
       <c r="Q185" s="8"/>
     </row>
-    <row r="186" ht="16.6" customHeight="1">
+    <row r="186" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="19"/>
       <c r="B186" s="7"/>
       <c r="C186" s="19"/>
@@ -6422,7 +6392,7 @@
       <c r="P186" s="8"/>
       <c r="Q186" s="8"/>
     </row>
-    <row r="187" ht="16.6" customHeight="1">
+    <row r="187" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="28"/>
       <c r="B187" s="19"/>
       <c r="C187" s="19"/>
@@ -6441,7 +6411,7 @@
       <c r="P187" s="8"/>
       <c r="Q187" s="8"/>
     </row>
-    <row r="188" ht="16.6" customHeight="1">
+    <row r="188" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="28"/>
       <c r="B188" s="19"/>
       <c r="C188" s="19"/>
@@ -6460,7 +6430,7 @@
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
     </row>
-    <row r="189" ht="16.6" customHeight="1">
+    <row r="189" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19"/>
       <c r="B189" s="7"/>
       <c r="C189" s="19"/>
@@ -6479,7 +6449,7 @@
       <c r="P189" s="8"/>
       <c r="Q189" s="8"/>
     </row>
-    <row r="190" ht="16.6" customHeight="1">
+    <row r="190" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="28"/>
       <c r="B190" s="19"/>
       <c r="C190" s="19"/>
@@ -6498,7 +6468,7 @@
       <c r="P190" s="8"/>
       <c r="Q190" s="8"/>
     </row>
-    <row r="191" ht="16.6" customHeight="1">
+    <row r="191" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="28"/>
       <c r="B191" s="19"/>
       <c r="C191" s="19"/>
@@ -6517,7 +6487,7 @@
       <c r="P191" s="8"/>
       <c r="Q191" s="8"/>
     </row>
-    <row r="192" ht="16.6" customHeight="1">
+    <row r="192" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="28"/>
       <c r="B192" s="19"/>
       <c r="C192" s="19"/>
@@ -6536,7 +6506,7 @@
       <c r="P192" s="8"/>
       <c r="Q192" s="8"/>
     </row>
-    <row r="193" ht="16.6" customHeight="1">
+    <row r="193" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="28"/>
       <c r="B193" s="19"/>
       <c r="C193" s="19"/>
@@ -6555,7 +6525,7 @@
       <c r="P193" s="8"/>
       <c r="Q193" s="8"/>
     </row>
-    <row r="194" ht="16.6" customHeight="1">
+    <row r="194" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="19"/>
       <c r="B194" s="7"/>
       <c r="C194" s="19"/>
@@ -6574,7 +6544,7 @@
       <c r="P194" s="8"/>
       <c r="Q194" s="8"/>
     </row>
-    <row r="195" ht="16.6" customHeight="1">
+    <row r="195" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="28"/>
       <c r="B195" s="19"/>
       <c r="C195" s="19"/>
@@ -6593,7 +6563,7 @@
       <c r="P195" s="8"/>
       <c r="Q195" s="8"/>
     </row>
-    <row r="196" ht="16.6" customHeight="1">
+    <row r="196" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="28"/>
       <c r="B196" s="19"/>
       <c r="C196" s="19"/>
@@ -6612,7 +6582,7 @@
       <c r="P196" s="8"/>
       <c r="Q196" s="8"/>
     </row>
-    <row r="197" ht="16.6" customHeight="1">
+    <row r="197" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="28"/>
       <c r="B197" s="19"/>
       <c r="C197" s="19"/>
@@ -6631,7 +6601,7 @@
       <c r="P197" s="8"/>
       <c r="Q197" s="8"/>
     </row>
-    <row r="198" ht="16.6" customHeight="1">
+    <row r="198" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="28"/>
       <c r="B198" s="19"/>
       <c r="C198" s="19"/>
@@ -6650,7 +6620,7 @@
       <c r="P198" s="8"/>
       <c r="Q198" s="8"/>
     </row>
-    <row r="199" ht="16.6" customHeight="1">
+    <row r="199" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="28"/>
       <c r="B199" s="19"/>
       <c r="C199" s="19"/>
@@ -6669,7 +6639,7 @@
       <c r="P199" s="8"/>
       <c r="Q199" s="8"/>
     </row>
-    <row r="200" ht="16.6" customHeight="1">
+    <row r="200" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="28"/>
       <c r="B200" s="19"/>
       <c r="C200" s="19"/>
@@ -6688,7 +6658,7 @@
       <c r="P200" s="8"/>
       <c r="Q200" s="8"/>
     </row>
-    <row r="201" ht="16.6" customHeight="1">
+    <row r="201" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="19"/>
       <c r="B201" s="7"/>
       <c r="C201" s="19"/>
@@ -6707,7 +6677,7 @@
       <c r="P201" s="8"/>
       <c r="Q201" s="8"/>
     </row>
-    <row r="202" ht="16.6" customHeight="1">
+    <row r="202" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="28"/>
       <c r="B202" s="19"/>
       <c r="C202" s="19"/>
@@ -6726,7 +6696,7 @@
       <c r="P202" s="8"/>
       <c r="Q202" s="8"/>
     </row>
-    <row r="203" ht="16.6" customHeight="1">
+    <row r="203" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="28"/>
       <c r="B203" s="19"/>
       <c r="C203" s="19"/>
@@ -6745,7 +6715,7 @@
       <c r="P203" s="8"/>
       <c r="Q203" s="8"/>
     </row>
-    <row r="204" ht="16.6" customHeight="1">
+    <row r="204" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="19"/>
       <c r="B204" s="7"/>
       <c r="C204" s="19"/>
@@ -6764,7 +6734,7 @@
       <c r="P204" s="8"/>
       <c r="Q204" s="8"/>
     </row>
-    <row r="205" ht="16.6" customHeight="1">
+    <row r="205" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="28"/>
       <c r="B205" s="19"/>
       <c r="C205" s="19"/>
@@ -6783,7 +6753,7 @@
       <c r="P205" s="8"/>
       <c r="Q205" s="8"/>
     </row>
-    <row r="206" ht="16.6" customHeight="1">
+    <row r="206" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="28"/>
       <c r="B206" s="19"/>
       <c r="C206" s="19"/>
@@ -6802,7 +6772,7 @@
       <c r="P206" s="8"/>
       <c r="Q206" s="8"/>
     </row>
-    <row r="207" ht="16.6" customHeight="1">
+    <row r="207" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="28"/>
       <c r="B207" s="19"/>
       <c r="C207" s="19"/>
@@ -6821,7 +6791,7 @@
       <c r="P207" s="8"/>
       <c r="Q207" s="8"/>
     </row>
-    <row r="208" ht="16.6" customHeight="1">
+    <row r="208" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="28"/>
       <c r="B208" s="19"/>
       <c r="C208" s="19"/>
@@ -6840,7 +6810,7 @@
       <c r="P208" s="8"/>
       <c r="Q208" s="8"/>
     </row>
-    <row r="209" ht="16.6" customHeight="1">
+    <row r="209" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="28"/>
       <c r="B209" s="19"/>
       <c r="C209" s="19"/>
@@ -6859,7 +6829,7 @@
       <c r="P209" s="8"/>
       <c r="Q209" s="8"/>
     </row>
-    <row r="210" ht="16.6" customHeight="1">
+    <row r="210" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="28"/>
       <c r="B210" s="19"/>
       <c r="C210" s="19"/>
@@ -6878,7 +6848,7 @@
       <c r="P210" s="8"/>
       <c r="Q210" s="8"/>
     </row>
-    <row r="211" ht="16.6" customHeight="1">
+    <row r="211" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="28"/>
       <c r="B211" s="19"/>
       <c r="C211" s="19"/>
@@ -6897,7 +6867,7 @@
       <c r="P211" s="8"/>
       <c r="Q211" s="8"/>
     </row>
-    <row r="212" ht="16.6" customHeight="1">
+    <row r="212" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="28"/>
       <c r="B212" s="19"/>
       <c r="C212" s="19"/>
@@ -6916,7 +6886,7 @@
       <c r="P212" s="8"/>
       <c r="Q212" s="8"/>
     </row>
-    <row r="213" ht="16.6" customHeight="1">
+    <row r="213" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="19"/>
       <c r="B213" s="7"/>
       <c r="C213" s="19"/>
@@ -6935,7 +6905,7 @@
       <c r="P213" s="8"/>
       <c r="Q213" s="8"/>
     </row>
-    <row r="214" ht="16.6" customHeight="1">
+    <row r="214" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="28"/>
       <c r="B214" s="19"/>
       <c r="C214" s="19"/>
@@ -6954,7 +6924,7 @@
       <c r="P214" s="8"/>
       <c r="Q214" s="8"/>
     </row>
-    <row r="215" ht="16.6" customHeight="1">
+    <row r="215" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="28"/>
       <c r="B215" s="19"/>
       <c r="C215" s="19"/>
@@ -6973,7 +6943,7 @@
       <c r="P215" s="8"/>
       <c r="Q215" s="8"/>
     </row>
-    <row r="216" ht="16.6" customHeight="1">
+    <row r="216" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="28"/>
       <c r="B216" s="19"/>
       <c r="C216" s="19"/>
@@ -6992,7 +6962,7 @@
       <c r="P216" s="8"/>
       <c r="Q216" s="8"/>
     </row>
-    <row r="217" ht="16.6" customHeight="1">
+    <row r="217" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="28"/>
       <c r="B217" s="19"/>
       <c r="C217" s="19"/>
@@ -7011,7 +6981,7 @@
       <c r="P217" s="8"/>
       <c r="Q217" s="8"/>
     </row>
-    <row r="218" ht="16.6" customHeight="1">
+    <row r="218" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="28"/>
       <c r="B218" s="19"/>
       <c r="C218" s="19"/>
@@ -7030,7 +7000,7 @@
       <c r="P218" s="8"/>
       <c r="Q218" s="8"/>
     </row>
-    <row r="219" ht="16.6" customHeight="1">
+    <row r="219" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="28"/>
       <c r="B219" s="19"/>
       <c r="C219" s="19"/>
@@ -7049,7 +7019,7 @@
       <c r="P219" s="8"/>
       <c r="Q219" s="8"/>
     </row>
-    <row r="220" ht="16.6" customHeight="1">
+    <row r="220" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="28"/>
       <c r="B220" s="19"/>
       <c r="C220" s="19"/>
@@ -7068,7 +7038,7 @@
       <c r="P220" s="8"/>
       <c r="Q220" s="8"/>
     </row>
-    <row r="221" ht="16.6" customHeight="1">
+    <row r="221" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="28"/>
       <c r="B221" s="19"/>
       <c r="C221" s="19"/>
@@ -7087,7 +7057,7 @@
       <c r="P221" s="8"/>
       <c r="Q221" s="8"/>
     </row>
-    <row r="222" ht="16.6" customHeight="1">
+    <row r="222" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="28"/>
       <c r="B222" s="19"/>
       <c r="C222" s="19"/>
@@ -7106,7 +7076,7 @@
       <c r="P222" s="8"/>
       <c r="Q222" s="8"/>
     </row>
-    <row r="223" ht="16.6" customHeight="1">
+    <row r="223" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="28"/>
       <c r="B223" s="19"/>
       <c r="C223" s="19"/>
@@ -7125,7 +7095,7 @@
       <c r="P223" s="8"/>
       <c r="Q223" s="8"/>
     </row>
-    <row r="224" ht="16.6" customHeight="1">
+    <row r="224" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="28"/>
       <c r="B224" s="19"/>
       <c r="C224" s="19"/>
@@ -7144,7 +7114,7 @@
       <c r="P224" s="8"/>
       <c r="Q224" s="8"/>
     </row>
-    <row r="225" ht="16.6" customHeight="1">
+    <row r="225" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="28"/>
       <c r="B225" s="19"/>
       <c r="C225" s="19"/>
@@ -7163,7 +7133,7 @@
       <c r="P225" s="8"/>
       <c r="Q225" s="8"/>
     </row>
-    <row r="226" ht="16.6" customHeight="1">
+    <row r="226" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="28"/>
       <c r="B226" s="19"/>
       <c r="C226" s="19"/>
@@ -7182,7 +7152,7 @@
       <c r="P226" s="8"/>
       <c r="Q226" s="8"/>
     </row>
-    <row r="227" ht="16.6" customHeight="1">
+    <row r="227" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="28"/>
       <c r="B227" s="19"/>
       <c r="C227" s="19"/>
@@ -7201,7 +7171,7 @@
       <c r="P227" s="8"/>
       <c r="Q227" s="8"/>
     </row>
-    <row r="228" ht="16.6" customHeight="1">
+    <row r="228" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="19"/>
       <c r="B228" s="7"/>
       <c r="C228" s="19"/>
@@ -7220,7 +7190,7 @@
       <c r="P228" s="8"/>
       <c r="Q228" s="8"/>
     </row>
-    <row r="229" ht="16.6" customHeight="1">
+    <row r="229" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="28"/>
       <c r="B229" s="19"/>
       <c r="C229" s="19"/>
@@ -7239,7 +7209,7 @@
       <c r="P229" s="8"/>
       <c r="Q229" s="8"/>
     </row>
-    <row r="230" ht="16.6" customHeight="1">
+    <row r="230" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="28"/>
       <c r="B230" s="19"/>
       <c r="C230" s="19"/>
@@ -7258,7 +7228,7 @@
       <c r="P230" s="8"/>
       <c r="Q230" s="8"/>
     </row>
-    <row r="231" ht="16.6" customHeight="1">
+    <row r="231" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="28"/>
       <c r="B231" s="19"/>
       <c r="C231" s="19"/>
@@ -7277,7 +7247,7 @@
       <c r="P231" s="8"/>
       <c r="Q231" s="8"/>
     </row>
-    <row r="232" ht="16.6" customHeight="1">
+    <row r="232" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="28"/>
       <c r="B232" s="19"/>
       <c r="C232" s="19"/>
@@ -7296,7 +7266,7 @@
       <c r="P232" s="8"/>
       <c r="Q232" s="8"/>
     </row>
-    <row r="233" ht="16.6" customHeight="1">
+    <row r="233" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="19"/>
       <c r="B233" s="7"/>
       <c r="C233" s="19"/>
@@ -7315,7 +7285,7 @@
       <c r="P233" s="8"/>
       <c r="Q233" s="8"/>
     </row>
-    <row r="234" ht="16.6" customHeight="1">
+    <row r="234" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="28"/>
       <c r="B234" s="19"/>
       <c r="C234" s="19"/>
@@ -7334,7 +7304,7 @@
       <c r="P234" s="8"/>
       <c r="Q234" s="8"/>
     </row>
-    <row r="235" ht="16.6" customHeight="1">
+    <row r="235" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="28"/>
       <c r="B235" s="19"/>
       <c r="C235" s="19"/>
@@ -7353,7 +7323,7 @@
       <c r="P235" s="8"/>
       <c r="Q235" s="8"/>
     </row>
-    <row r="236" ht="16.6" customHeight="1">
+    <row r="236" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="28"/>
       <c r="B236" s="19"/>
       <c r="C236" s="19"/>
@@ -7372,7 +7342,7 @@
       <c r="P236" s="8"/>
       <c r="Q236" s="8"/>
     </row>
-    <row r="237" ht="16.6" customHeight="1">
+    <row r="237" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="28"/>
       <c r="B237" s="19"/>
       <c r="C237" s="19"/>
@@ -7391,7 +7361,7 @@
       <c r="P237" s="8"/>
       <c r="Q237" s="8"/>
     </row>
-    <row r="238" ht="16.6" customHeight="1">
+    <row r="238" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="19"/>
       <c r="B238" s="7"/>
       <c r="C238" s="19"/>
@@ -7410,7 +7380,7 @@
       <c r="P238" s="8"/>
       <c r="Q238" s="8"/>
     </row>
-    <row r="239" ht="16.6" customHeight="1">
+    <row r="239" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="28"/>
       <c r="B239" s="19"/>
       <c r="C239" s="19"/>
@@ -7429,7 +7399,7 @@
       <c r="P239" s="8"/>
       <c r="Q239" s="8"/>
     </row>
-    <row r="240" ht="16.6" customHeight="1">
+    <row r="240" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="28"/>
       <c r="B240" s="19"/>
       <c r="C240" s="19"/>
@@ -7448,7 +7418,7 @@
       <c r="P240" s="8"/>
       <c r="Q240" s="8"/>
     </row>
-    <row r="241" ht="16.6" customHeight="1">
+    <row r="241" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="19"/>
       <c r="B241" s="7"/>
       <c r="C241" s="19"/>
@@ -7467,7 +7437,7 @@
       <c r="P241" s="8"/>
       <c r="Q241" s="8"/>
     </row>
-    <row r="242" ht="16.6" customHeight="1">
+    <row r="242" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="28"/>
       <c r="B242" s="19"/>
       <c r="C242" s="19"/>
@@ -7486,7 +7456,7 @@
       <c r="P242" s="8"/>
       <c r="Q242" s="8"/>
     </row>
-    <row r="243" ht="16.6" customHeight="1">
+    <row r="243" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="28"/>
       <c r="B243" s="19"/>
       <c r="C243" s="19"/>
@@ -7505,7 +7475,7 @@
       <c r="P243" s="8"/>
       <c r="Q243" s="8"/>
     </row>
-    <row r="244" ht="16.6" customHeight="1">
+    <row r="244" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="28"/>
       <c r="B244" s="19"/>
       <c r="C244" s="19"/>
@@ -7524,7 +7494,7 @@
       <c r="P244" s="8"/>
       <c r="Q244" s="8"/>
     </row>
-    <row r="245" ht="16.6" customHeight="1">
+    <row r="245" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="28"/>
       <c r="B245" s="19"/>
       <c r="C245" s="19"/>
@@ -7543,7 +7513,7 @@
       <c r="P245" s="8"/>
       <c r="Q245" s="8"/>
     </row>
-    <row r="246" ht="16.6" customHeight="1">
+    <row r="246" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="28"/>
       <c r="B246" s="19"/>
       <c r="C246" s="19"/>
@@ -7562,7 +7532,7 @@
       <c r="P246" s="8"/>
       <c r="Q246" s="8"/>
     </row>
-    <row r="247" ht="16.6" customHeight="1">
+    <row r="247" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="28"/>
       <c r="B247" s="19"/>
       <c r="C247" s="19"/>
@@ -7581,7 +7551,7 @@
       <c r="P247" s="8"/>
       <c r="Q247" s="8"/>
     </row>
-    <row r="248" ht="16.6" customHeight="1">
+    <row r="248" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="28"/>
       <c r="B248" s="19"/>
       <c r="C248" s="19"/>
@@ -7600,7 +7570,7 @@
       <c r="P248" s="8"/>
       <c r="Q248" s="8"/>
     </row>
-    <row r="249" ht="16.6" customHeight="1">
+    <row r="249" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="28"/>
       <c r="B249" s="19"/>
       <c r="C249" s="19"/>
@@ -7619,7 +7589,7 @@
       <c r="P249" s="8"/>
       <c r="Q249" s="8"/>
     </row>
-    <row r="250" ht="16.6" customHeight="1">
+    <row r="250" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="28"/>
       <c r="B250" s="19"/>
       <c r="C250" s="19"/>
@@ -7638,7 +7608,7 @@
       <c r="P250" s="8"/>
       <c r="Q250" s="8"/>
     </row>
-    <row r="251" ht="16.6" customHeight="1">
+    <row r="251" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="28"/>
       <c r="B251" s="19"/>
       <c r="C251" s="19"/>
@@ -7657,7 +7627,7 @@
       <c r="P251" s="8"/>
       <c r="Q251" s="8"/>
     </row>
-    <row r="252" ht="16.6" customHeight="1">
+    <row r="252" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="28"/>
       <c r="B252" s="19"/>
       <c r="C252" s="19"/>
@@ -7676,7 +7646,7 @@
       <c r="P252" s="8"/>
       <c r="Q252" s="8"/>
     </row>
-    <row r="253" ht="16.6" customHeight="1">
+    <row r="253" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="28"/>
       <c r="B253" s="19"/>
       <c r="C253" s="19"/>
@@ -7695,7 +7665,7 @@
       <c r="P253" s="8"/>
       <c r="Q253" s="8"/>
     </row>
-    <row r="254" ht="16.6" customHeight="1">
+    <row r="254" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="28"/>
       <c r="B254" s="19"/>
       <c r="C254" s="19"/>
@@ -7714,7 +7684,7 @@
       <c r="P254" s="8"/>
       <c r="Q254" s="8"/>
     </row>
-    <row r="255" ht="16.6" customHeight="1">
+    <row r="255" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="28"/>
       <c r="B255" s="19"/>
       <c r="C255" s="19"/>
@@ -7733,7 +7703,7 @@
       <c r="P255" s="8"/>
       <c r="Q255" s="8"/>
     </row>
-    <row r="256" ht="16.6" customHeight="1">
+    <row r="256" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="28"/>
       <c r="B256" s="19"/>
       <c r="C256" s="19"/>
@@ -7752,7 +7722,7 @@
       <c r="P256" s="8"/>
       <c r="Q256" s="8"/>
     </row>
-    <row r="257" ht="16.6" customHeight="1">
+    <row r="257" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="28"/>
       <c r="B257" s="19"/>
       <c r="C257" s="19"/>
@@ -7771,7 +7741,7 @@
       <c r="P257" s="8"/>
       <c r="Q257" s="8"/>
     </row>
-    <row r="258" ht="16.6" customHeight="1">
+    <row r="258" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="28"/>
       <c r="B258" s="19"/>
       <c r="C258" s="19"/>
@@ -7790,7 +7760,7 @@
       <c r="P258" s="8"/>
       <c r="Q258" s="8"/>
     </row>
-    <row r="259" ht="16.6" customHeight="1">
+    <row r="259" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="28"/>
       <c r="B259" s="19"/>
       <c r="C259" s="19"/>
@@ -7809,7 +7779,7 @@
       <c r="P259" s="8"/>
       <c r="Q259" s="8"/>
     </row>
-    <row r="260" ht="16.6" customHeight="1">
+    <row r="260" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="28"/>
       <c r="B260" s="19"/>
       <c r="C260" s="19"/>
@@ -7828,7 +7798,7 @@
       <c r="P260" s="8"/>
       <c r="Q260" s="8"/>
     </row>
-    <row r="261" ht="16.6" customHeight="1">
+    <row r="261" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="28"/>
       <c r="B261" s="19"/>
       <c r="C261" s="19"/>
@@ -7847,7 +7817,7 @@
       <c r="P261" s="8"/>
       <c r="Q261" s="8"/>
     </row>
-    <row r="262" ht="16.6" customHeight="1">
+    <row r="262" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="28"/>
       <c r="B262" s="19"/>
       <c r="C262" s="19"/>
@@ -7866,7 +7836,7 @@
       <c r="P262" s="8"/>
       <c r="Q262" s="8"/>
     </row>
-    <row r="263" ht="16.6" customHeight="1">
+    <row r="263" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="28"/>
       <c r="B263" s="19"/>
       <c r="C263" s="19"/>
@@ -7885,7 +7855,7 @@
       <c r="P263" s="8"/>
       <c r="Q263" s="8"/>
     </row>
-    <row r="264" ht="16.6" customHeight="1">
+    <row r="264" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="28"/>
       <c r="B264" s="19"/>
       <c r="C264" s="19"/>
@@ -7904,7 +7874,7 @@
       <c r="P264" s="8"/>
       <c r="Q264" s="8"/>
     </row>
-    <row r="265" ht="16.6" customHeight="1">
+    <row r="265" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="28"/>
       <c r="B265" s="19"/>
       <c r="C265" s="19"/>
@@ -7923,7 +7893,7 @@
       <c r="P265" s="8"/>
       <c r="Q265" s="8"/>
     </row>
-    <row r="266" ht="16.6" customHeight="1">
+    <row r="266" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="19"/>
       <c r="B266" s="7"/>
       <c r="C266" s="19"/>
@@ -7942,7 +7912,7 @@
       <c r="P266" s="8"/>
       <c r="Q266" s="8"/>
     </row>
-    <row r="267" ht="16.6" customHeight="1">
+    <row r="267" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="28"/>
       <c r="B267" s="19"/>
       <c r="C267" s="19"/>
@@ -7961,7 +7931,7 @@
       <c r="P267" s="8"/>
       <c r="Q267" s="8"/>
     </row>
-    <row r="268" ht="16.6" customHeight="1">
+    <row r="268" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="28"/>
       <c r="B268" s="19"/>
       <c r="C268" s="19"/>
@@ -7980,7 +7950,7 @@
       <c r="P268" s="8"/>
       <c r="Q268" s="8"/>
     </row>
-    <row r="269" ht="16.6" customHeight="1">
+    <row r="269" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="28"/>
       <c r="B269" s="19"/>
       <c r="C269" s="19"/>
@@ -7999,7 +7969,7 @@
       <c r="P269" s="8"/>
       <c r="Q269" s="8"/>
     </row>
-    <row r="270" ht="16.6" customHeight="1">
+    <row r="270" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="28"/>
       <c r="B270" s="19"/>
       <c r="C270" s="19"/>
@@ -8018,7 +7988,7 @@
       <c r="P270" s="8"/>
       <c r="Q270" s="8"/>
     </row>
-    <row r="271" ht="16.6" customHeight="1">
+    <row r="271" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="19"/>
       <c r="B271" s="7"/>
       <c r="C271" s="19"/>
@@ -8037,7 +8007,7 @@
       <c r="P271" s="8"/>
       <c r="Q271" s="8"/>
     </row>
-    <row r="272" ht="16.6" customHeight="1">
+    <row r="272" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="28"/>
       <c r="B272" s="19"/>
       <c r="C272" s="19"/>
@@ -8056,7 +8026,7 @@
       <c r="P272" s="8"/>
       <c r="Q272" s="8"/>
     </row>
-    <row r="273" ht="16.6" customHeight="1">
+    <row r="273" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="28"/>
       <c r="B273" s="19"/>
       <c r="C273" s="19"/>
@@ -8075,7 +8045,7 @@
       <c r="P273" s="8"/>
       <c r="Q273" s="8"/>
     </row>
-    <row r="274" ht="16.6" customHeight="1">
+    <row r="274" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="28"/>
       <c r="B274" s="19"/>
       <c r="C274" s="19"/>
@@ -8094,7 +8064,7 @@
       <c r="P274" s="8"/>
       <c r="Q274" s="8"/>
     </row>
-    <row r="275" ht="16.6" customHeight="1">
+    <row r="275" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="28"/>
       <c r="B275" s="19"/>
       <c r="C275" s="19"/>
@@ -8113,7 +8083,7 @@
       <c r="P275" s="8"/>
       <c r="Q275" s="8"/>
     </row>
-    <row r="276" ht="16.6" customHeight="1">
+    <row r="276" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="28"/>
       <c r="B276" s="19"/>
       <c r="C276" s="19"/>
@@ -8132,7 +8102,7 @@
       <c r="P276" s="8"/>
       <c r="Q276" s="8"/>
     </row>
-    <row r="277" ht="16.6" customHeight="1">
+    <row r="277" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="28"/>
       <c r="B277" s="19"/>
       <c r="C277" s="19"/>
@@ -8151,7 +8121,7 @@
       <c r="P277" s="8"/>
       <c r="Q277" s="8"/>
     </row>
-    <row r="278" ht="16.6" customHeight="1">
+    <row r="278" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="28"/>
       <c r="B278" s="19"/>
       <c r="C278" s="19"/>
@@ -8170,7 +8140,7 @@
       <c r="P278" s="8"/>
       <c r="Q278" s="8"/>
     </row>
-    <row r="279" ht="16.6" customHeight="1">
+    <row r="279" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="28"/>
       <c r="B279" s="19"/>
       <c r="C279" s="19"/>
@@ -8189,7 +8159,7 @@
       <c r="P279" s="8"/>
       <c r="Q279" s="8"/>
     </row>
-    <row r="280" ht="16.6" customHeight="1">
+    <row r="280" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="19"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -8208,7 +8178,7 @@
       <c r="P280" s="8"/>
       <c r="Q280" s="8"/>
     </row>
-    <row r="281" ht="16.6" customHeight="1">
+    <row r="281" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="28"/>
       <c r="B281" s="19"/>
       <c r="C281" s="19"/>
@@ -8227,7 +8197,7 @@
       <c r="P281" s="8"/>
       <c r="Q281" s="8"/>
     </row>
-    <row r="282" ht="16.6" customHeight="1">
+    <row r="282" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="28"/>
       <c r="B282" s="19"/>
       <c r="C282" s="19"/>
@@ -8246,7 +8216,7 @@
       <c r="P282" s="8"/>
       <c r="Q282" s="8"/>
     </row>
-    <row r="283" ht="16.6" customHeight="1">
+    <row r="283" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="19"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -8265,7 +8235,7 @@
       <c r="P283" s="8"/>
       <c r="Q283" s="8"/>
     </row>
-    <row r="284" ht="16.6" customHeight="1">
+    <row r="284" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="28"/>
       <c r="B284" s="19"/>
       <c r="C284" s="19"/>
@@ -8284,7 +8254,7 @@
       <c r="P284" s="8"/>
       <c r="Q284" s="8"/>
     </row>
-    <row r="285" ht="16.6" customHeight="1">
+    <row r="285" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="28"/>
       <c r="B285" s="19"/>
       <c r="C285" s="19"/>
@@ -8303,7 +8273,7 @@
       <c r="P285" s="8"/>
       <c r="Q285" s="8"/>
     </row>
-    <row r="286" ht="16.6" customHeight="1">
+    <row r="286" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="28"/>
       <c r="B286" s="19"/>
       <c r="C286" s="19"/>
@@ -8322,7 +8292,7 @@
       <c r="P286" s="8"/>
       <c r="Q286" s="8"/>
     </row>
-    <row r="287" ht="16.6" customHeight="1">
+    <row r="287" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="28"/>
       <c r="B287" s="19"/>
       <c r="C287" s="19"/>
@@ -8341,7 +8311,7 @@
       <c r="P287" s="8"/>
       <c r="Q287" s="8"/>
     </row>
-    <row r="288" ht="16.6" customHeight="1">
+    <row r="288" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="19"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -8360,7 +8330,7 @@
       <c r="P288" s="8"/>
       <c r="Q288" s="8"/>
     </row>
-    <row r="289" ht="16.6" customHeight="1">
+    <row r="289" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="28"/>
       <c r="B289" s="19"/>
       <c r="C289" s="19"/>
@@ -8379,7 +8349,7 @@
       <c r="P289" s="8"/>
       <c r="Q289" s="8"/>
     </row>
-    <row r="290" ht="16.6" customHeight="1">
+    <row r="290" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="28"/>
       <c r="B290" s="19"/>
       <c r="C290" s="19"/>
@@ -8398,7 +8368,7 @@
       <c r="P290" s="8"/>
       <c r="Q290" s="8"/>
     </row>
-    <row r="291" ht="16.6" customHeight="1">
+    <row r="291" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="19"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -8417,7 +8387,7 @@
       <c r="P291" s="8"/>
       <c r="Q291" s="8"/>
     </row>
-    <row r="292" ht="16.6" customHeight="1">
+    <row r="292" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="28"/>
       <c r="B292" s="19"/>
       <c r="C292" s="19"/>
@@ -8436,7 +8406,7 @@
       <c r="P292" s="8"/>
       <c r="Q292" s="8"/>
     </row>
-    <row r="293" ht="16.6" customHeight="1">
+    <row r="293" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="28"/>
       <c r="B293" s="19"/>
       <c r="C293" s="19"/>
@@ -8455,7 +8425,7 @@
       <c r="P293" s="8"/>
       <c r="Q293" s="8"/>
     </row>
-    <row r="294" ht="16.6" customHeight="1">
+    <row r="294" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="28"/>
       <c r="B294" s="19"/>
       <c r="C294" s="19"/>
@@ -8474,7 +8444,7 @@
       <c r="P294" s="8"/>
       <c r="Q294" s="8"/>
     </row>
-    <row r="295" ht="16.6" customHeight="1">
+    <row r="295" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="28"/>
       <c r="B295" s="19"/>
       <c r="C295" s="19"/>
@@ -8493,7 +8463,7 @@
       <c r="P295" s="8"/>
       <c r="Q295" s="8"/>
     </row>
-    <row r="296" ht="16.6" customHeight="1">
+    <row r="296" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="28"/>
       <c r="B296" s="19"/>
       <c r="C296" s="19"/>
@@ -8512,7 +8482,7 @@
       <c r="P296" s="8"/>
       <c r="Q296" s="8"/>
     </row>
-    <row r="297" ht="16.6" customHeight="1">
+    <row r="297" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="28"/>
       <c r="B297" s="19"/>
       <c r="C297" s="19"/>
@@ -8531,7 +8501,7 @@
       <c r="P297" s="8"/>
       <c r="Q297" s="8"/>
     </row>
-    <row r="298" ht="16.6" customHeight="1">
+    <row r="298" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="28"/>
       <c r="B298" s="19"/>
       <c r="C298" s="19"/>
@@ -8550,7 +8520,7 @@
       <c r="P298" s="8"/>
       <c r="Q298" s="8"/>
     </row>
-    <row r="299" ht="16.6" customHeight="1">
+    <row r="299" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="28"/>
       <c r="B299" s="19"/>
       <c r="C299" s="19"/>
@@ -8569,7 +8539,7 @@
       <c r="P299" s="8"/>
       <c r="Q299" s="8"/>
     </row>
-    <row r="300" ht="16.6" customHeight="1">
+    <row r="300" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="19"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -8588,7 +8558,7 @@
       <c r="P300" s="8"/>
       <c r="Q300" s="8"/>
     </row>
-    <row r="301" ht="16.6" customHeight="1">
+    <row r="301" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="28"/>
       <c r="B301" s="19"/>
       <c r="C301" s="19"/>
@@ -8607,7 +8577,7 @@
       <c r="P301" s="8"/>
       <c r="Q301" s="8"/>
     </row>
-    <row r="302" ht="16.6" customHeight="1">
+    <row r="302" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="28"/>
       <c r="B302" s="19"/>
       <c r="C302" s="19"/>
@@ -8626,7 +8596,7 @@
       <c r="P302" s="8"/>
       <c r="Q302" s="8"/>
     </row>
-    <row r="303" ht="16.6" customHeight="1">
+    <row r="303" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="19"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -8645,7 +8615,7 @@
       <c r="P303" s="8"/>
       <c r="Q303" s="8"/>
     </row>
-    <row r="304" ht="16.6" customHeight="1">
+    <row r="304" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="28"/>
       <c r="B304" s="19"/>
       <c r="C304" s="19"/>
@@ -8664,7 +8634,7 @@
       <c r="P304" s="8"/>
       <c r="Q304" s="8"/>
     </row>
-    <row r="305" ht="16.6" customHeight="1">
+    <row r="305" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="28"/>
       <c r="B305" s="19"/>
       <c r="C305" s="19"/>
@@ -8683,7 +8653,7 @@
       <c r="P305" s="8"/>
       <c r="Q305" s="8"/>
     </row>
-    <row r="306" ht="16.6" customHeight="1">
+    <row r="306" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="19"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -8702,7 +8672,7 @@
       <c r="P306" s="8"/>
       <c r="Q306" s="8"/>
     </row>
-    <row r="307" ht="16.6" customHeight="1">
+    <row r="307" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="28"/>
       <c r="B307" s="19"/>
       <c r="C307" s="19"/>
@@ -8721,7 +8691,7 @@
       <c r="P307" s="8"/>
       <c r="Q307" s="8"/>
     </row>
-    <row r="308" ht="16.6" customHeight="1">
+    <row r="308" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="28"/>
       <c r="B308" s="19"/>
       <c r="C308" s="19"/>
@@ -8740,7 +8710,7 @@
       <c r="P308" s="8"/>
       <c r="Q308" s="8"/>
     </row>
-    <row r="309" ht="16.6" customHeight="1">
+    <row r="309" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="19"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -8759,7 +8729,7 @@
       <c r="P309" s="8"/>
       <c r="Q309" s="8"/>
     </row>
-    <row r="310" ht="16.6" customHeight="1">
+    <row r="310" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="28"/>
       <c r="B310" s="19"/>
       <c r="C310" s="19"/>
@@ -8778,7 +8748,7 @@
       <c r="P310" s="8"/>
       <c r="Q310" s="8"/>
     </row>
-    <row r="311" ht="16.6" customHeight="1">
+    <row r="311" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="28"/>
       <c r="B311" s="19"/>
       <c r="C311" s="19"/>
@@ -8797,7 +8767,7 @@
       <c r="P311" s="8"/>
       <c r="Q311" s="8"/>
     </row>
-    <row r="312" ht="16.6" customHeight="1">
+    <row r="312" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="19"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -8816,7 +8786,7 @@
       <c r="P312" s="8"/>
       <c r="Q312" s="8"/>
     </row>
-    <row r="313" ht="16.6" customHeight="1">
+    <row r="313" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="28"/>
       <c r="B313" s="19"/>
       <c r="C313" s="19"/>
@@ -8835,7 +8805,7 @@
       <c r="P313" s="8"/>
       <c r="Q313" s="8"/>
     </row>
-    <row r="314" ht="16.6" customHeight="1">
+    <row r="314" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="28"/>
       <c r="B314" s="19"/>
       <c r="C314" s="19"/>
@@ -8854,7 +8824,7 @@
       <c r="P314" s="8"/>
       <c r="Q314" s="8"/>
     </row>
-    <row r="315" ht="16.6" customHeight="1">
+    <row r="315" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="19"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -8873,7 +8843,7 @@
       <c r="P315" s="8"/>
       <c r="Q315" s="8"/>
     </row>
-    <row r="316" ht="16.6" customHeight="1">
+    <row r="316" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="28"/>
       <c r="B316" s="19"/>
       <c r="C316" s="19"/>
@@ -8892,7 +8862,7 @@
       <c r="P316" s="8"/>
       <c r="Q316" s="8"/>
     </row>
-    <row r="317" ht="16.6" customHeight="1">
+    <row r="317" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="28"/>
       <c r="B317" s="19"/>
       <c r="C317" s="19"/>
@@ -8911,7 +8881,7 @@
       <c r="P317" s="8"/>
       <c r="Q317" s="8"/>
     </row>
-    <row r="318" ht="16.6" customHeight="1">
+    <row r="318" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="19"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -8930,7 +8900,7 @@
       <c r="P318" s="8"/>
       <c r="Q318" s="8"/>
     </row>
-    <row r="319" ht="16.6" customHeight="1">
+    <row r="319" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="28"/>
       <c r="B319" s="19"/>
       <c r="C319" s="19"/>
@@ -8949,7 +8919,7 @@
       <c r="P319" s="8"/>
       <c r="Q319" s="8"/>
     </row>
-    <row r="320" ht="16.6" customHeight="1">
+    <row r="320" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="28"/>
       <c r="B320" s="19"/>
       <c r="C320" s="19"/>
@@ -8968,7 +8938,7 @@
       <c r="P320" s="8"/>
       <c r="Q320" s="8"/>
     </row>
-    <row r="321" ht="16.6" customHeight="1">
+    <row r="321" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="28"/>
       <c r="B321" s="19"/>
       <c r="C321" s="19"/>
@@ -8987,7 +8957,7 @@
       <c r="P321" s="8"/>
       <c r="Q321" s="8"/>
     </row>
-    <row r="322" ht="16.6" customHeight="1">
+    <row r="322" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="28"/>
       <c r="B322" s="19"/>
       <c r="C322" s="19"/>
@@ -9006,7 +8976,7 @@
       <c r="P322" s="8"/>
       <c r="Q322" s="8"/>
     </row>
-    <row r="323" ht="16.6" customHeight="1">
+    <row r="323" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="19"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -9025,7 +8995,7 @@
       <c r="P323" s="8"/>
       <c r="Q323" s="8"/>
     </row>
-    <row r="324" ht="16.6" customHeight="1">
+    <row r="324" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="28"/>
       <c r="B324" s="19"/>
       <c r="C324" s="19"/>
@@ -9044,7 +9014,7 @@
       <c r="P324" s="8"/>
       <c r="Q324" s="8"/>
     </row>
-    <row r="325" ht="16.6" customHeight="1">
+    <row r="325" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="28"/>
       <c r="B325" s="19"/>
       <c r="C325" s="19"/>
@@ -9063,7 +9033,7 @@
       <c r="P325" s="8"/>
       <c r="Q325" s="8"/>
     </row>
-    <row r="326" ht="16.6" customHeight="1">
+    <row r="326" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="28"/>
       <c r="B326" s="19"/>
       <c r="C326" s="19"/>
@@ -9082,7 +9052,7 @@
       <c r="P326" s="8"/>
       <c r="Q326" s="8"/>
     </row>
-    <row r="327" ht="16.6" customHeight="1">
+    <row r="327" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="28"/>
       <c r="B327" s="19"/>
       <c r="C327" s="19"/>
@@ -9101,7 +9071,7 @@
       <c r="P327" s="8"/>
       <c r="Q327" s="8"/>
     </row>
-    <row r="328" ht="16.6" customHeight="1">
+    <row r="328" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="19"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -9120,7 +9090,7 @@
       <c r="P328" s="8"/>
       <c r="Q328" s="8"/>
     </row>
-    <row r="329" ht="16.6" customHeight="1">
+    <row r="329" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="28"/>
       <c r="B329" s="19"/>
       <c r="C329" s="19"/>
@@ -9139,7 +9109,7 @@
       <c r="P329" s="8"/>
       <c r="Q329" s="8"/>
     </row>
-    <row r="330" ht="16.6" customHeight="1">
+    <row r="330" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="28"/>
       <c r="B330" s="19"/>
       <c r="C330" s="19"/>
@@ -9158,7 +9128,7 @@
       <c r="P330" s="8"/>
       <c r="Q330" s="8"/>
     </row>
-    <row r="331" ht="16.6" customHeight="1">
+    <row r="331" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="28"/>
       <c r="B331" s="19"/>
       <c r="C331" s="19"/>
@@ -9177,7 +9147,7 @@
       <c r="P331" s="8"/>
       <c r="Q331" s="8"/>
     </row>
-    <row r="332" ht="16.6" customHeight="1">
+    <row r="332" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="28"/>
       <c r="B332" s="19"/>
       <c r="C332" s="19"/>
@@ -9196,7 +9166,7 @@
       <c r="P332" s="8"/>
       <c r="Q332" s="8"/>
     </row>
-    <row r="333" ht="16.6" customHeight="1">
+    <row r="333" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="19"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -9215,7 +9185,7 @@
       <c r="P333" s="8"/>
       <c r="Q333" s="8"/>
     </row>
-    <row r="334" ht="16.6" customHeight="1">
+    <row r="334" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="28"/>
       <c r="B334" s="19"/>
       <c r="C334" s="19"/>
@@ -9234,7 +9204,7 @@
       <c r="P334" s="8"/>
       <c r="Q334" s="8"/>
     </row>
-    <row r="335" ht="16.6" customHeight="1">
+    <row r="335" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="28"/>
       <c r="B335" s="19"/>
       <c r="C335" s="19"/>
@@ -9253,7 +9223,7 @@
       <c r="P335" s="34"/>
       <c r="Q335" s="8"/>
     </row>
-    <row r="336" ht="16.6" customHeight="1">
+    <row r="336" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="28"/>
       <c r="B336" s="19"/>
       <c r="C336" s="19"/>
@@ -9272,7 +9242,7 @@
       <c r="P336" s="8"/>
       <c r="Q336" s="8"/>
     </row>
-    <row r="337" ht="16.6" customHeight="1">
+    <row r="337" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="28"/>
       <c r="B337" s="19"/>
       <c r="C337" s="19"/>
@@ -9291,7 +9261,7 @@
       <c r="P337" s="37"/>
       <c r="Q337" s="34"/>
     </row>
-    <row r="338" ht="16.6" customHeight="1">
+    <row r="338" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="28"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -9310,7 +9280,7 @@
       <c r="P338" s="39"/>
       <c r="Q338" s="8"/>
     </row>
-    <row r="339" ht="16.6" customHeight="1">
+    <row r="339" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="28"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -9329,7 +9299,7 @@
       <c r="P339" s="8"/>
       <c r="Q339" s="8"/>
     </row>
-    <row r="340" ht="16.6" customHeight="1">
+    <row r="340" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="28"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -9348,7 +9318,7 @@
       <c r="P340" s="8"/>
       <c r="Q340" s="8"/>
     </row>
-    <row r="341" ht="16.6" customHeight="1">
+    <row r="341" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="8"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -9367,7 +9337,7 @@
       <c r="P341" s="8"/>
       <c r="Q341" s="8"/>
     </row>
-    <row r="342" ht="16.6" customHeight="1">
+    <row r="342" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="8"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -9386,7 +9356,7 @@
       <c r="P342" s="8"/>
       <c r="Q342" s="8"/>
     </row>
-    <row r="343" ht="16.6" customHeight="1">
+    <row r="343" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="8"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -9405,7 +9375,7 @@
       <c r="P343" s="8"/>
       <c r="Q343" s="8"/>
     </row>
-    <row r="344" ht="16.6" customHeight="1">
+    <row r="344" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="8"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -9424,7 +9394,7 @@
       <c r="P344" s="8"/>
       <c r="Q344" s="8"/>
     </row>
-    <row r="345" ht="16.6" customHeight="1">
+    <row r="345" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="41"/>
       <c r="B345" s="42"/>
       <c r="C345" s="42"/>
@@ -9443,7 +9413,7 @@
       <c r="P345" s="8"/>
       <c r="Q345" s="8"/>
     </row>
-    <row r="346" ht="16.6" customHeight="1">
+    <row r="346" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="8"/>
       <c r="B346" s="42"/>
       <c r="C346" s="42"/>
@@ -9467,10 +9437,10 @@
     <mergeCell ref="B4:D4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Sheet1</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -9480,47 +9450,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="44" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="44" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="44" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="44" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="44" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="44" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="44" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="44" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="44" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="44" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="44" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="44" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="44" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="44" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="44" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="44" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="44" customWidth="1"/>
-    <col min="18" max="256" width="11.5" style="44" customWidth="1"/>
+    <col min="1" max="256" width="11.42578125" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="45">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s" s="45">
+      <c r="C1" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s" s="45">
+      <c r="D1" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s" s="45">
-        <v>53</v>
-      </c>
-      <c r="E1" t="s" s="45">
+      <c r="E1" s="45" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="46"/>
@@ -9536,12 +9489,12 @@
       <c r="P1" s="46"/>
       <c r="Q1" s="46"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
       <c r="D2" s="48">
-        <f>SUM(B2,C2)</f>
+        <f t="shared" ref="D2:D10" si="0">SUM(B2,C2)</f>
         <v>0</v>
       </c>
       <c r="E2" s="46"/>
@@ -9558,7 +9511,7 @@
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47">
         <v>42146</v>
       </c>
@@ -9567,7 +9520,7 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="48">
-        <f>SUM(B3,C3)</f>
+        <f t="shared" si="0"/>
         <v>6885</v>
       </c>
       <c r="E3" s="46"/>
@@ -9584,7 +9537,7 @@
       <c r="P3" s="46"/>
       <c r="Q3" s="46"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="47">
         <v>42153</v>
       </c>
@@ -9593,7 +9546,7 @@
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="48">
-        <f>SUM(B4,C4)</f>
+        <f t="shared" si="0"/>
         <v>6844.5</v>
       </c>
       <c r="E4" s="46"/>
@@ -9610,7 +9563,7 @@
       <c r="P4" s="46"/>
       <c r="Q4" s="46"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="47">
         <v>42160</v>
       </c>
@@ -9619,7 +9572,7 @@
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="48">
-        <f>SUM(B5,C5)</f>
+        <f t="shared" si="0"/>
         <v>6790.5</v>
       </c>
       <c r="E5" s="46"/>
@@ -9636,7 +9589,7 @@
       <c r="P5" s="46"/>
       <c r="Q5" s="46"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="47">
         <v>42167</v>
       </c>
@@ -9645,7 +9598,7 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="48">
-        <f>SUM(B6,C6)</f>
+        <f t="shared" si="0"/>
         <v>6718.5</v>
       </c>
       <c r="E6" s="46"/>
@@ -9662,7 +9615,7 @@
       <c r="P6" s="46"/>
       <c r="Q6" s="46"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="47">
         <v>42174</v>
       </c>
@@ -9671,7 +9624,7 @@
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="48">
-        <f>SUM(B7,C7)</f>
+        <f t="shared" si="0"/>
         <v>6691.5</v>
       </c>
       <c r="E7" s="46"/>
@@ -9688,7 +9641,7 @@
       <c r="P7" s="46"/>
       <c r="Q7" s="46"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="47">
         <v>42181</v>
       </c>
@@ -9697,7 +9650,7 @@
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="48">
-        <f>SUM(B8,C8)</f>
+        <f t="shared" si="0"/>
         <v>6646.5</v>
       </c>
       <c r="E8" s="46"/>
@@ -9714,7 +9667,7 @@
       <c r="P8" s="46"/>
       <c r="Q8" s="46"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="47">
         <v>42188</v>
       </c>
@@ -9723,7 +9676,7 @@
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="48">
-        <f>SUM(B9,C9)</f>
+        <f t="shared" si="0"/>
         <v>6592.5</v>
       </c>
       <c r="E9" s="46"/>
@@ -9740,7 +9693,7 @@
       <c r="P9" s="46"/>
       <c r="Q9" s="46"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="47">
         <v>42195</v>
       </c>
@@ -9749,7 +9702,7 @@
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="48">
-        <f>SUM(B10,C10)</f>
+        <f t="shared" si="0"/>
         <v>6547.5</v>
       </c>
       <c r="E10" s="46"/>
@@ -9766,7 +9719,7 @@
       <c r="P10" s="46"/>
       <c r="Q10" s="46"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -9785,7 +9738,7 @@
       <c r="P11" s="46"/>
       <c r="Q11" s="46"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -9804,7 +9757,7 @@
       <c r="P12" s="46"/>
       <c r="Q12" s="46"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
@@ -9823,7 +9776,7 @@
       <c r="P13" s="46"/>
       <c r="Q13" s="46"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
       <c r="B14" s="46"/>
       <c r="C14" s="46"/>
@@ -9842,7 +9795,7 @@
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -9861,7 +9814,7 @@
       <c r="P15" s="46"/>
       <c r="Q15" s="46"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
       <c r="B16" s="46"/>
       <c r="C16" s="46"/>
@@ -9880,7 +9833,7 @@
       <c r="P16" s="46"/>
       <c r="Q16" s="46"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -9899,7 +9852,7 @@
       <c r="P17" s="46"/>
       <c r="Q17" s="46"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -9918,7 +9871,7 @@
       <c r="P18" s="46"/>
       <c r="Q18" s="46"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="46"/>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -9937,7 +9890,7 @@
       <c r="P19" s="46"/>
       <c r="Q19" s="46"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -9956,7 +9909,7 @@
       <c r="P20" s="46"/>
       <c r="Q20" s="46"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -9975,7 +9928,7 @@
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -9994,7 +9947,7 @@
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -10013,7 +9966,7 @@
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -10032,7 +9985,7 @@
       <c r="P24" s="46"/>
       <c r="Q24" s="46"/>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -10051,7 +10004,7 @@
       <c r="P25" s="46"/>
       <c r="Q25" s="46"/>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
@@ -10070,7 +10023,7 @@
       <c r="P26" s="46"/>
       <c r="Q26" s="46"/>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="46"/>
@@ -10089,7 +10042,7 @@
       <c r="P27" s="46"/>
       <c r="Q27" s="46"/>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
@@ -10108,7 +10061,7 @@
       <c r="P28" s="46"/>
       <c r="Q28" s="46"/>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
@@ -10127,7 +10080,7 @@
       <c r="P29" s="46"/>
       <c r="Q29" s="46"/>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
@@ -10146,7 +10099,7 @@
       <c r="P30" s="46"/>
       <c r="Q30" s="46"/>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
@@ -10165,7 +10118,7 @@
       <c r="P31" s="46"/>
       <c r="Q31" s="46"/>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -10184,7 +10137,7 @@
       <c r="P32" s="46"/>
       <c r="Q32" s="46"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
@@ -10203,7 +10156,7 @@
       <c r="P33" s="46"/>
       <c r="Q33" s="46"/>
     </row>
-    <row r="34" ht="12.75" customHeight="1">
+    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
@@ -10222,7 +10175,7 @@
       <c r="P34" s="46"/>
       <c r="Q34" s="46"/>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
@@ -10241,7 +10194,7 @@
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>
       <c r="B36" s="46"/>
       <c r="C36" s="46"/>
@@ -10260,7 +10213,7 @@
       <c r="P36" s="46"/>
       <c r="Q36" s="46"/>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
@@ -10280,8 +10233,8 @@
       <c r="Q37" s="46"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Sheet2</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
@@ -10291,85 +10244,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="49" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="49" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="49" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="49" customWidth="1"/>
-    <col min="6" max="256" width="11.5" style="49" customWidth="1"/>
+    <col min="1" max="256" width="11.42578125" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1">
+    <row r="1" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46"/>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
+    <row r="2" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
+    <row r="3" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46"/>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
       <c r="E3" s="46"/>
     </row>
-    <row r="4" ht="13.65" customHeight="1">
+    <row r="4" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="46"/>
       <c r="B4" s="46"/>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
       <c r="E4" s="46"/>
     </row>
-    <row r="5" ht="13.65" customHeight="1">
+    <row r="5" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="46"/>
       <c r="B5" s="46"/>
       <c r="C5" s="46"/>
       <c r="D5" s="46"/>
       <c r="E5" s="46"/>
     </row>
-    <row r="6" ht="13.65" customHeight="1">
+    <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" ht="13.65" customHeight="1">
+    <row r="7" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="46"/>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
       <c r="E7" s="46"/>
     </row>
-    <row r="8" ht="13.65" customHeight="1">
+    <row r="8" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46"/>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
       <c r="D8" s="46"/>
       <c r="E8" s="46"/>
     </row>
-    <row r="9" ht="13.65" customHeight="1">
+    <row r="9" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="46"/>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
     </row>
-    <row r="10" ht="13.65" customHeight="1">
+    <row r="10" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46"/>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -10377,8 +10325,8 @@
       <c r="E10" s="46"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05278" bottom="1.05278" header="0.7875" footer="0.7875"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05278" bottom="1.05278" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Sheet3</oddHeader>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
